--- a/battles/Hydaspes/Hydaspes.xlsx
+++ b/battles/Hydaspes/Hydaspes.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\training\gboh-companion\battles\Hydaspes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEF89D7-328A-498F-9EFB-1C228D536271}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CBC32-73C8-40D4-BA94-03C4CFA3A087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scythians" sheetId="1" r:id="rId1"/>
+    <sheet name="Indian" sheetId="1" r:id="rId1"/>
     <sheet name="Macedonian" sheetId="2" r:id="rId2"/>
     <sheet name="Leaders" sheetId="3" r:id="rId3"/>
+    <sheet name="Indian Leaders" sheetId="4" r:id="rId4"/>
+    <sheet name="Macedonian Leaders" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
-    <pivotCache cacheId="9" r:id="rId5"/>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="130">
   <si>
     <t>Kind</t>
   </si>
@@ -111,18 +112,12 @@
     <t>Companion</t>
   </si>
   <si>
-    <t>LN</t>
-  </si>
-  <si>
     <t>MissileStatus</t>
   </si>
   <si>
     <t>CH</t>
   </si>
   <si>
-    <t>MI</t>
-  </si>
-  <si>
     <t>EL</t>
   </si>
   <si>
@@ -132,9 +127,6 @@
     <t>Nb mens</t>
   </si>
   <si>
-    <t>Totals</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -210,69 +202,6 @@
     <t>Mercenary</t>
   </si>
   <si>
-    <t>Scythian</t>
-  </si>
-  <si>
-    <t>LC6</t>
-  </si>
-  <si>
-    <t>LC7</t>
-  </si>
-  <si>
-    <t>LC8</t>
-  </si>
-  <si>
-    <t>LC9</t>
-  </si>
-  <si>
-    <t>LC10</t>
-  </si>
-  <si>
-    <t>LC11</t>
-  </si>
-  <si>
-    <t>LC12</t>
-  </si>
-  <si>
-    <t>LC13</t>
-  </si>
-  <si>
-    <t>LC14</t>
-  </si>
-  <si>
-    <t>LC15</t>
-  </si>
-  <si>
-    <t>LC16</t>
-  </si>
-  <si>
-    <t>LC17</t>
-  </si>
-  <si>
-    <t>LC18</t>
-  </si>
-  <si>
-    <t>LC19</t>
-  </si>
-  <si>
-    <t>LC20</t>
-  </si>
-  <si>
-    <t>LN1</t>
-  </si>
-  <si>
-    <t>LN2</t>
-  </si>
-  <si>
-    <t>LN3</t>
-  </si>
-  <si>
-    <t>LN4</t>
-  </si>
-  <si>
-    <t>LN5</t>
-  </si>
-  <si>
     <t>Cretan</t>
   </si>
   <si>
@@ -286,6 +215,222 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t>Abisares</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>Spitaces</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>Meroes</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Porus</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>Leonatus</t>
+  </si>
+  <si>
+    <t>PTO</t>
+  </si>
+  <si>
+    <t>Ptolemy</t>
+  </si>
+  <si>
+    <t>ALE</t>
+  </si>
+  <si>
+    <t>Chariots</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t>CH2</t>
+  </si>
+  <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>CH5</t>
+  </si>
+  <si>
+    <t>CH6</t>
+  </si>
+  <si>
+    <t>CH7</t>
+  </si>
+  <si>
+    <t>CH8</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>EL1</t>
+  </si>
+  <si>
+    <t>EL2</t>
+  </si>
+  <si>
+    <t>EL3</t>
+  </si>
+  <si>
+    <t>EL4</t>
+  </si>
+  <si>
+    <t>EL5</t>
+  </si>
+  <si>
+    <t>EL6</t>
+  </si>
+  <si>
+    <t>EL7</t>
+  </si>
+  <si>
+    <t>EL8</t>
+  </si>
+  <si>
+    <t>EL9</t>
+  </si>
+  <si>
+    <t>EL10</t>
+  </si>
+  <si>
+    <t>EL11</t>
+  </si>
+  <si>
+    <t>EL12</t>
+  </si>
+  <si>
+    <t>EL13</t>
+  </si>
+  <si>
+    <t>EL14</t>
+  </si>
+  <si>
+    <t>EL15</t>
+  </si>
+  <si>
+    <t>EL16</t>
+  </si>
+  <si>
+    <t>EL17</t>
+  </si>
+  <si>
+    <t>EL18</t>
+  </si>
+  <si>
+    <t>EL19</t>
+  </si>
+  <si>
+    <t>EL20</t>
+  </si>
+  <si>
+    <t>EL21</t>
+  </si>
+  <si>
+    <t>LIA1</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>MJ,ES</t>
+  </si>
+  <si>
+    <t>LIA2</t>
+  </si>
+  <si>
+    <t>LIA3</t>
+  </si>
+  <si>
+    <t>LIA4</t>
+  </si>
+  <si>
+    <t>LIA5</t>
+  </si>
+  <si>
+    <t>LIA6</t>
+  </si>
+  <si>
+    <t>LI1</t>
+  </si>
+  <si>
+    <t>LI2</t>
+  </si>
+  <si>
+    <t>LI3</t>
+  </si>
+  <si>
+    <t>LI4</t>
+  </si>
+  <si>
+    <t>LI5</t>
+  </si>
+  <si>
+    <t>LI6</t>
+  </si>
+  <si>
+    <t>LI7</t>
+  </si>
+  <si>
+    <t>LI8</t>
+  </si>
+  <si>
+    <t>LI9</t>
+  </si>
+  <si>
+    <t>LI10</t>
+  </si>
+  <si>
+    <t>LI11</t>
+  </si>
+  <si>
+    <t>LI12</t>
+  </si>
+  <si>
+    <t>LI13</t>
+  </si>
+  <si>
+    <t>LI14</t>
+  </si>
+  <si>
+    <t>LI15</t>
+  </si>
+  <si>
+    <t>LI16</t>
   </si>
 </sst>
 </file>
@@ -491,84 +636,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kloetzer Laurent" refreshedDate="44513.604342013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="121" xr:uid="{620AAC42-625C-4033-BC4C-A5C1D86D294F}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M3" sheet="Scythians"/>
-  </cacheSource>
-  <cacheFields count="13">
-    <cacheField name="Kind" numFmtId="0">
-      <sharedItems count="9">
-        <s v="CH"/>
-        <s v="EL"/>
-        <s v="MI"/>
-        <s v="HC"/>
-        <s v="HI"/>
-        <s v="LC"/>
-        <s v="LN"/>
-        <s v="SK"/>
-        <s v="LI"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Subclass" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Origin" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Number" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="14"/>
-    </cacheField>
-    <cacheField name="Unit code" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="TQ" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="8" count="6">
-        <n v="5"/>
-        <n v="4"/>
-        <n v="8"/>
-        <n v="7"/>
-        <n v="6"/>
-        <n v="3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
-    </cacheField>
-    <cacheField name="Missile" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Hits" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="State" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="MissileStatus" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Unit global type" numFmtId="0">
-      <sharedItems count="6">
-        <s v="CH"/>
-        <s v="EL"/>
-        <s v="Infantry"/>
-        <s v="Cavalry"/>
-        <s v="SK"/>
-        <s v="LN" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nb mens" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="750"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kloetzer Laurent" refreshedDate="44543.879472106484" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="23" xr:uid="{B6A22028-14FE-4685-8C44-A35F1E940364}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H24" sheet="Macedonian"/>
@@ -624,7 +691,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kloetzer Laurent" refreshedDate="44543.879745601851" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="23" xr:uid="{4EF386B3-D446-48C8-8AF0-3F9BEA3A8D4C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N24" sheet="Macedonian"/>
@@ -688,1826 +755,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="121">
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="1"/>
-    <s v="CH1"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="2"/>
-    <s v="CH2"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="3"/>
-    <s v="CH3"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="4"/>
-    <s v="CH4"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="5"/>
-    <s v="CH5"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="6"/>
-    <s v="CH6"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="7"/>
-    <s v="CH7"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="8"/>
-    <s v="CH8"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="9"/>
-    <s v="CH9"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="10"/>
-    <s v="CH10"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="11"/>
-    <s v="CH11"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <m/>
-    <s v="Persian"/>
-    <n v="12"/>
-    <s v="CH12"/>
-    <x v="0"/>
-    <n v="3"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="1"/>
-    <s v="EL1"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="2"/>
-    <s v="EL2"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="3"/>
-    <s v="EL3"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <s v="Immortals"/>
-    <n v="1"/>
-    <s v="MI1"/>
-    <x v="2"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <s v="Immortals"/>
-    <n v="2"/>
-    <s v="MI2"/>
-    <x v="2"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Kinsmen"/>
-    <n v="1"/>
-    <s v="KHC1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Kinsmen"/>
-    <n v="2"/>
-    <s v="KHC2"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="HO"/>
-    <s v="Greek mercenaries"/>
-    <n v="1"/>
-    <s v="HI1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="HO"/>
-    <s v="Greek mercenaries"/>
-    <n v="2"/>
-    <s v="HI2"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="600"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="1"/>
-    <s v="BHC1"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="2"/>
-    <s v="BHC2"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="3"/>
-    <s v="BHC3"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="4"/>
-    <s v="BHC4"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="5"/>
-    <s v="BHC5"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="6"/>
-    <s v="BHC6"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="7"/>
-    <s v="BHC7"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="8"/>
-    <s v="BHC8"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="9"/>
-    <s v="BHC9"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="10"/>
-    <s v="BHC10"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="11"/>
-    <s v="BHC11"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="12"/>
-    <s v="BHC12"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="13"/>
-    <s v="BHC13"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Bactrian"/>
-    <n v="14"/>
-    <s v="BHC14"/>
-    <x v="4"/>
-    <n v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Scythian"/>
-    <n v="1"/>
-    <s v="SHC1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Scythian"/>
-    <n v="2"/>
-    <s v="SHC2"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Scythian"/>
-    <n v="1"/>
-    <s v="SLC1"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Scythian"/>
-    <n v="2"/>
-    <s v="SLC2"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Scythian"/>
-    <n v="3"/>
-    <s v="SLC3"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Scythian"/>
-    <n v="4"/>
-    <s v="SLC4"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Scythian"/>
-    <n v="5"/>
-    <s v="SLC5"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Scythian"/>
-    <n v="6"/>
-    <s v="SLC6"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Dahae"/>
-    <n v="1"/>
-    <s v="DLC1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Dahae"/>
-    <n v="2"/>
-    <s v="DLC2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Arachosian"/>
-    <n v="1"/>
-    <s v="ArLC1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Arachosian"/>
-    <n v="2"/>
-    <s v="ArLC2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Arachosian"/>
-    <n v="3"/>
-    <s v="ArLC3"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Arachosian"/>
-    <n v="4"/>
-    <s v="ArLC4"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Persian"/>
-    <n v="1"/>
-    <s v="PHC1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="CAT"/>
-    <s v="Persian"/>
-    <n v="2"/>
-    <s v="PHC2"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Susian"/>
-    <n v="1"/>
-    <s v="SuHC1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Susian"/>
-    <n v="2"/>
-    <s v="SuHC2"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Cadusian"/>
-    <n v="1"/>
-    <s v="CLN1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Cadusian"/>
-    <n v="2"/>
-    <s v="CLN2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="1"/>
-    <s v="ILN1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="2"/>
-    <s v="ILN2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="xCarian"/>
-    <n v="1"/>
-    <s v="xLN1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="xCarian"/>
-    <n v="2"/>
-    <s v="xLN2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Sacesinian"/>
-    <n v="1"/>
-    <s v="SLN1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Sacesinian"/>
-    <n v="2"/>
-    <s v="SLN2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Albanian"/>
-    <n v="1"/>
-    <s v="ALN1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Albanian"/>
-    <n v="2"/>
-    <s v="ALN2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Hyrcanian"/>
-    <n v="1"/>
-    <s v="HLN1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Hyrcanian"/>
-    <n v="2"/>
-    <s v="HLN2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Tapurian"/>
-    <n v="1"/>
-    <s v="TLN1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <m/>
-    <s v="Tapurian"/>
-    <n v="2"/>
-    <s v="TLN2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Sacian"/>
-    <n v="1"/>
-    <s v="SaLC1"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Sacian"/>
-    <n v="2"/>
-    <s v="SaLC2"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Sacian"/>
-    <n v="3"/>
-    <s v="SaLC3"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Sacian"/>
-    <n v="4"/>
-    <s v="SaLC4"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Parthian"/>
-    <n v="1"/>
-    <s v="PLC1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Parthian"/>
-    <n v="2"/>
-    <s v="PLC2"/>
-    <x v="3"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Parthian"/>
-    <n v="3"/>
-    <s v="PLC3"/>
-    <x v="3"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Parthian"/>
-    <n v="4"/>
-    <s v="PLC4"/>
-    <x v="3"/>
-    <n v="5"/>
-    <s v="MA"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Median"/>
-    <n v="1"/>
-    <s v="MHC1"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Median"/>
-    <n v="2"/>
-    <s v="MHC2"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Median"/>
-    <n v="3"/>
-    <s v="MHC3"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <s v="Median"/>
-    <n v="4"/>
-    <s v="MHC4"/>
-    <x v="3"/>
-    <n v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Mesopotamian"/>
-    <n v="1"/>
-    <s v="MLC1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Mesopotamian"/>
-    <n v="2"/>
-    <s v="MLC2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Syrian"/>
-    <n v="1"/>
-    <s v="SyLC1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Syrian"/>
-    <n v="2"/>
-    <s v="SyLC2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Cappadocian"/>
-    <n v="1"/>
-    <s v="CLC1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Cappadocian"/>
-    <n v="2"/>
-    <s v="CLC2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Armenian"/>
-    <n v="1"/>
-    <s v="ALC1"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Armenian"/>
-    <n v="2"/>
-    <s v="ALC2"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Armenian"/>
-    <n v="3"/>
-    <s v="ALC3"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <s v="Armenian"/>
-    <n v="4"/>
-    <s v="ALC4"/>
-    <x v="4"/>
-    <n v="5"/>
-    <s v="MJ"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Mardian"/>
-    <n v="1"/>
-    <s v="MSK1"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Mardian"/>
-    <n v="2"/>
-    <s v="MSK2"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Uxian"/>
-    <n v="1"/>
-    <s v="USK1"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="S"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Uxian"/>
-    <n v="2"/>
-    <s v="USK2"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="S"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Uxian"/>
-    <n v="3"/>
-    <s v="USK3"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="S"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Uxian"/>
-    <n v="4"/>
-    <s v="USK4"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="S"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Uxian"/>
-    <n v="5"/>
-    <s v="USK5"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="S"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Carian"/>
-    <n v="1"/>
-    <s v="CLI1"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Carian"/>
-    <n v="2"/>
-    <s v="CLI2"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Carian"/>
-    <n v="3"/>
-    <s v="CLI3"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="1"/>
-    <s v="BLI1"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="2"/>
-    <s v="BLI2"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="3"/>
-    <s v="BLI3"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="4"/>
-    <s v="BLI4"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="5"/>
-    <s v="BLI5"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="6"/>
-    <s v="BLI6"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="7"/>
-    <s v="BLI7"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Babylonian"/>
-    <n v="8"/>
-    <s v="BLI8"/>
-    <x v="5"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Arabian"/>
-    <n v="1"/>
-    <s v="ArSK1"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Arabian"/>
-    <n v="2"/>
-    <s v="ArSK2"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Arabian"/>
-    <n v="3"/>
-    <s v="ArSK3"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Arabian"/>
-    <n v="4"/>
-    <s v="ArSK4"/>
-    <x v="1"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="1"/>
-    <s v="InLI1"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="2"/>
-    <s v="InLI2"/>
-    <x v="1"/>
-    <n v="5"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="3"/>
-    <s v="InLI3"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <s v="Indian"/>
-    <n v="4"/>
-    <s v="InLI4"/>
-    <x v="0"/>
-    <n v="5"/>
-    <s v="J"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <n v="750"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Sitacenian"/>
-    <n v="1"/>
-    <s v="SiSK1"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Sitacenian"/>
-    <n v="2"/>
-    <s v="SiSK2"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Sitacenian"/>
-    <n v="3"/>
-    <s v="SiSK3"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Sitacenian"/>
-    <n v="4"/>
-    <s v="SiSK4"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Sitacenian"/>
-    <n v="5"/>
-    <s v="SiSK5"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <s v="Sitacenian"/>
-    <n v="6"/>
-    <s v="SiSK6"/>
-    <x v="5"/>
-    <n v="1"/>
-    <s v="A"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
   <r>
     <x v="0"/>
@@ -2742,7 +989,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="23">
   <r>
     <s v="PH"/>
@@ -3116,285 +1363,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53AB256D-CC01-46D6-89A6-A06101BD26D1}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A38:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="25">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Unit code" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C9D5DE3-B357-461A-B7B9-8EA354408846}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="M38:N44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="5"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Nb mens" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64CD77FD-45F6-487F-9339-BEB42CFD4DEB}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N31:O37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Nb mens" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D165A-15F5-4328-ACD3-D3D33A98CD06}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D165A-15F5-4328-ACD3-D3D33A98CD06}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A31:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -3494,6 +1463,75 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Unit code" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64CD77FD-45F6-487F-9339-BEB42CFD4DEB}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N31:O37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Nb mens" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3829,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3875,275 +1913,275 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L3" si="0">IF(OR(RIGHT(A2)="C",A2="LN"),"Cavalry",IF(RIGHT(A2)="I","Infantry",A2))</f>
-        <v>Cavalry</v>
+        <f t="shared" ref="L2" si="0">IF(OR(RIGHT(A2)="C",A2="LN"),"Cavalry",IF(RIGHT(A2)="I","Infantry",A2))</f>
+        <v>CH</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M3" si="1">IF(L2="Cavalry",G2*100,IF(L2="Infantry",G2*150,0))</f>
-        <v>500</v>
+        <f t="shared" ref="M2" si="1">IF(L2="Cavalry",G2*100,IF(L2="Infantry",G2*150,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="0"/>
-        <v>Cavalry</v>
+        <f t="shared" ref="L3:L9" si="2">IF(OR(RIGHT(A3)="C",A3="LN"),"Cavalry",IF(RIGHT(A3)="I","Infantry",A3))</f>
+        <v>CH</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
-        <v>500</v>
+        <f t="shared" ref="M3:M9" si="3">IF(L3="Cavalry",G3*100,IF(L3="Infantry",G3*150,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L8" si="2">IF(OR(RIGHT(A4)="C",A4="LN"),"Cavalry",IF(RIGHT(A4)="I","Infantry",A4))</f>
-        <v>Cavalry</v>
+        <f t="shared" si="2"/>
+        <v>CH</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M8" si="3">IF(L4="Cavalry",G4*100,IF(L4="Infantry",G4*150,0))</f>
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="2"/>
-        <v>Cavalry</v>
+        <v>CH</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="2"/>
-        <v>Cavalry</v>
+        <v>CH</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="2"/>
-        <v>Cavalry</v>
+        <v>CH</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="2"/>
-        <v>Cavalry</v>
+        <v>CH</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ref="L9:L11" si="4">IF(OR(RIGHT(A9)="C",A9="LN"),"Cavalry",IF(RIGHT(A9)="I","Infantry",A9))</f>
-        <v>Cavalry</v>
+        <f t="shared" si="2"/>
+        <v>CH</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M11" si="5">IF(L9="Cavalry",G9*100,IF(L9="Infantry",G9*150,0))</f>
-        <v>500</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -4152,29 +2190,29 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
-        <v>Cavalry</v>
+        <f t="shared" ref="L10" si="4">IF(OR(RIGHT(A10)="C",A10="LN"),"Cavalry",IF(RIGHT(A10)="I","Infantry",A10))</f>
+        <v>EL</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" ref="M10" si="5">IF(L10="Cavalry",G10*100,IF(L10="Infantry",G10*150,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -4183,29 +2221,29 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="4"/>
-        <v>Cavalry</v>
+        <f t="shared" ref="L11:L30" si="6">IF(OR(RIGHT(A11)="C",A11="LN"),"Cavalry",IF(RIGHT(A11)="I","Infantry",A11))</f>
+        <v>EL</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" ref="M11:M30" si="7">IF(L11="Cavalry",G11*100,IF(L11="Infantry",G11*150,0))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -4214,29 +2252,29 @@
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L12" si="6">IF(OR(RIGHT(A12)="C",A12="LN"),"Cavalry",IF(RIGHT(A12)="I","Infantry",A12))</f>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12" si="7">IF(L12="Cavalry",G12*100,IF(L12="Infantry",G12*150,0))</f>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -4245,29 +2283,29 @@
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ref="L13:L16" si="8">IF(OR(RIGHT(A13)="C",A13="LN"),"Cavalry",IF(RIGHT(A13)="I","Infantry",A13))</f>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M16" si="9">IF(L13="Cavalry",G13*100,IF(L13="Infantry",G13*150,0))</f>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -4276,29 +2314,29 @@
         <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="8"/>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M14">
-        <f t="shared" si="9"/>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -4307,29 +2345,29 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="8"/>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M15">
-        <f t="shared" si="9"/>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -4338,29 +2376,29 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="8"/>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M16">
-        <f t="shared" si="9"/>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -4368,27 +2406,30 @@
       <c r="G17">
         <v>5</v>
       </c>
+      <c r="H17" t="s">
+        <v>108</v>
+      </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L21" si="10">IF(OR(RIGHT(A17)="C",A17="LN"),"Cavalry",IF(RIGHT(A17)="I","Infantry",A17))</f>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M21" si="11">IF(L17="Cavalry",G17*100,IF(L17="Infantry",G17*150,0))</f>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -4396,27 +2437,30 @@
       <c r="G18">
         <v>5</v>
       </c>
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
       <c r="L18" t="str">
-        <f t="shared" si="10"/>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M18">
-        <f t="shared" si="11"/>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -4424,27 +2468,30 @@
       <c r="G19">
         <v>5</v>
       </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
       <c r="L19" t="str">
-        <f t="shared" si="10"/>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M19">
-        <f t="shared" si="11"/>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -4452,27 +2499,30 @@
       <c r="G20">
         <v>5</v>
       </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
       <c r="L20" t="str">
-        <f t="shared" si="10"/>
-        <v>Cavalry</v>
+        <f t="shared" si="6"/>
+        <v>EL</v>
       </c>
       <c r="M20">
-        <f t="shared" si="11"/>
-        <v>500</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -4480,286 +2530,983 @@
       <c r="G21">
         <v>5</v>
       </c>
+      <c r="H21" t="s">
+        <v>108</v>
+      </c>
       <c r="L21" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>108</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="6"/>
+        <v>EL</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" t="str">
+        <f>IF(OR(RIGHT(A31)="C",A31="LN"),"Cavalry",IF(RIGHT(A31)="I","Infantry",A31))</f>
+        <v>Infantry</v>
+      </c>
+      <c r="M31">
+        <f>IF(L31="Cavalry",G31*100,IF(L31="Infantry",G31*150,0))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" ref="L32:L37" si="8">IF(OR(RIGHT(A32)="C",A32="LN"),"Cavalry",IF(RIGHT(A32)="I","Infantry",A32))</f>
+        <v>Infantry</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M37" si="9">IF(L32="Cavalry",G32*100,IF(L32="Infantry",G32*150,0))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="8"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="8"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="8"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="8"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="8"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" ref="L38:L52" si="10">IF(OR(RIGHT(A38)="C",A38="LN"),"Cavalry",IF(RIGHT(A38)="I","Infantry",A38))</f>
+        <v>Infantry</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:M52" si="11">IF(L38="Cavalry",G38*100,IF(L38="Infantry",G38*150,0))</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="10"/>
-        <v>Cavalry</v>
-      </c>
-      <c r="M21">
+        <v>Infantry</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="11"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33">
-        <f>SUM(F2:F3)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="G33">
-        <f>SUM(G2:G3)</f>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>10</v>
       </c>
-      <c r="M33">
-        <f>SUM(M2:M25)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="4">
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48">
         <v>12</v>
       </c>
-      <c r="M39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="4">
-        <v>33600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>5</v>
-      </c>
-      <c r="B40" s="4">
-        <v>12</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="4">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>4</v>
-      </c>
-      <c r="B42" s="4">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N42" s="4">
-        <v>13950</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="4">
-        <v>26</v>
-      </c>
-      <c r="M43" s="3" t="s">
+      <c r="E48" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="11"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52">
         <v>16</v>
       </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>6</v>
-      </c>
-      <c r="B44" s="4">
-        <v>14</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" s="4">
-        <v>47550</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>7</v>
-      </c>
-      <c r="B45" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>6</v>
-      </c>
-      <c r="B47" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>5</v>
-      </c>
-      <c r="B49" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>6</v>
-      </c>
-      <c r="B50" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>7</v>
-      </c>
-      <c r="B51" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>3</v>
-      </c>
-      <c r="B53" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>4</v>
-      </c>
-      <c r="B54" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>5</v>
-      </c>
-      <c r="B55" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>6</v>
-      </c>
-      <c r="B57" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>8</v>
-      </c>
-      <c r="B59" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>3</v>
-      </c>
-      <c r="B61" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>4</v>
-      </c>
-      <c r="B62" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="4">
-        <v>121</v>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="10"/>
+        <v>Infantry</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="11"/>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4772,7 +3519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -4816,16 +3563,16 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -4989,7 +3736,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5022,7 +3769,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -5070,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ref="M9:M13" si="6">IF(OR(RIGHT(A9)="C",A9="LN"),"Cavalry",IF(OR(RIGHT(A9)="I",A9="PH",A9="LP"),"Infantry",A9))</f>
@@ -5086,7 +3833,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -5102,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="6"/>
@@ -5134,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" ref="M11" si="8">IF(OR(RIGHT(A11)="C",A11="LN"),"Cavalry",IF(OR(RIGHT(A11)="I",A11="PH",A11="LP"),"Infantry",A11))</f>
@@ -5147,16 +3894,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1">
         <v>6</v>
@@ -5178,16 +3925,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
@@ -5306,7 +4053,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -5339,7 +4086,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -5371,7 +4118,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -5403,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -5435,7 +4182,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -5614,7 +4361,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F28">
         <f>SUM(F2:F26)</f>
@@ -5631,16 +4378,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -5651,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O32" s="4">
         <v>3800</v>
@@ -5665,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O33" s="4">
         <v>11850</v>
@@ -5693,7 +4440,7 @@
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
@@ -5707,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="O36" s="4"/>
     </row>
@@ -5719,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O37" s="4">
         <v>15650</v>
@@ -5799,7 +4546,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4">
         <v>2</v>
@@ -5815,7 +4562,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B49" s="4">
         <v>23</v>
@@ -5845,15 +4592,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5869,7 +4616,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -5885,7 +4632,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5901,7 +4648,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -5917,7 +4664,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5933,7 +4680,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -5949,7 +4696,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -5965,7 +4712,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <f>SUM(B2:B8)</f>
@@ -5978,7 +4725,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -6010,7 +4757,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -6037,4 +4784,160 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6169ACB2-E0AD-478D-9F12-0590CDF1442C}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD64EED6-CDED-4DB5-AA95-2DBC19929EA2}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/battles/Hydaspes/Hydaspes.xlsx
+++ b/battles/Hydaspes/Hydaspes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\training\gboh-companion\battles\Hydaspes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CBC32-73C8-40D4-BA94-03C4CFA3A087}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA42C2-4B39-4DD1-A003-B3C3C42E2621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indian" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="136">
   <si>
     <t>Kind</t>
   </si>
@@ -431,6 +431,24 @@
   </si>
   <si>
     <t>LI16</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>Bactrian</t>
+  </si>
+  <si>
+    <t>Arachosian</t>
+  </si>
+  <si>
+    <t>Parapamasidian</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
 </sst>
 </file>
@@ -1363,8 +1381,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D165A-15F5-4328-ACD3-D3D33A98CD06}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A31:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D165A-15F5-4328-ACD3-D3D33A98CD06}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A35:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
@@ -1477,8 +1495,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64CD77FD-45F6-487F-9339-BEB42CFD4DEB}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N31:O37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64CD77FD-45F6-487F-9339-BEB42CFD4DEB}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="N35:O41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1869,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:M60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="A1:M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3517,10 +3535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="A1:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4047,7 +4065,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4069,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="10"/>
@@ -4080,7 +4098,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4102,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="10"/>
@@ -4113,7 +4131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4134,7 +4152,7 @@
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="10"/>
@@ -4145,7 +4163,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4166,7 +4184,7 @@
         <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" ref="M20" si="15">IF(OR(RIGHT(A20)="C",A20="LN"),"Cavalry",IF(OR(RIGHT(A20)="I",A20="PH",A20="LP"),"Infantry",A20))</f>
@@ -4177,7 +4195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4198,7 +4216,7 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="10"/>
@@ -4209,7 +4227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -4269,7 +4287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4299,7 +4317,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -4310,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" ref="E25:E26" si="17">LEFT(C25,1)&amp;A25&amp;LEFT(D25)</f>
+        <f t="shared" ref="E25:E29" si="17">LEFT(C25,1)&amp;A25&amp;LEFT(D25)</f>
         <v>CHC3</v>
       </c>
       <c r="F25" s="1">
@@ -4321,15 +4339,15 @@
       </c>
       <c r="H25" s="1"/>
       <c r="M25" t="str">
-        <f t="shared" ref="M25:M26" si="18">IF(OR(RIGHT(A25)="C",A25="LN"),"Cavalry",IF(OR(RIGHT(A25)="I",A25="PH",A25="LP"),"Infantry",A25))</f>
+        <f t="shared" ref="M25:M29" si="18">IF(OR(RIGHT(A25)="C",A25="LN"),"Cavalry",IF(OR(RIGHT(A25)="I",A25="PH",A25="LP"),"Infantry",A25))</f>
         <v>Cavalry</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N26" si="19">IF(M25="Cavalry",G25*100,IF(M25="Infantry",G25*150,0))</f>
+        <f t="shared" ref="N25:N29" si="19">IF(M25="Cavalry",G25*100,IF(M25="Infantry",G25*150,0))</f>
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -4359,212 +4377,345 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>BHC1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="18"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="19"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>ALC1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="18"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>PLC1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="18"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="19"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" ref="E30" si="20">LEFT(C30,1)&amp;A30&amp;LEFT(D30)</f>
+        <v>CHC5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="M30" t="str">
+        <f t="shared" ref="M30" si="21">IF(OR(RIGHT(A30)="C",A30="LN"),"Cavalry",IF(OR(RIGHT(A30)="I",A30="PH",A30="LP"),"Infantry",A30))</f>
+        <v>Cavalry</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30" si="22">IF(M30="Cavalry",G30*100,IF(M30="Infantry",G30*150,0))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>43</v>
       </c>
-      <c r="F28">
-        <f>SUM(F2:F26)</f>
-        <v>163</v>
-      </c>
-      <c r="G28">
-        <f>SUM(G2:G26)</f>
-        <v>132</v>
-      </c>
-      <c r="N28">
-        <f>SUM(N2:N26)</f>
-        <v>16650</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="F32">
+        <f>SUM(F2:F29)</f>
+        <v>184</v>
+      </c>
+      <c r="G32">
+        <f>SUM(G2:G29)</f>
+        <v>142</v>
+      </c>
+      <c r="N32">
+        <f>SUM(N2:N29)</f>
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B36" s="4">
         <v>3</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O36" s="4">
         <v>3800</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>8</v>
-      </c>
-      <c r="B33" s="4">
-        <v>2</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O33" s="4">
-        <v>11850</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>9</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>8</v>
-      </c>
-      <c r="B36" s="4">
-        <v>2</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" s="4">
+        <v>11850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="4">
-        <v>15650</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="4">
-        <v>5</v>
+      <c r="N38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>5</v>
+      <c r="A39" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B39" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O39" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" s="4">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>17</v>
+      <c r="A41" s="5">
+        <v>9</v>
       </c>
       <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="4">
+        <v>15650</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="4">
-        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B47" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>4</v>
+      </c>
+      <c r="B50" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>6</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B53" s="4">
         <v>23</v>
       </c>
     </row>

--- a/battles/Hydaspes/Hydaspes.xlsx
+++ b/battles/Hydaspes/Hydaspes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\code\training\gboh-companion\battles\Hydaspes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA42C2-4B39-4DD1-A003-B3C3C42E2621}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D297DE-8788-4AE6-B7F6-91851621EECC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,8 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="145">
   <si>
     <t>Kind</t>
   </si>
@@ -449,6 +449,33 @@
   </si>
   <si>
     <t>MA</t>
+  </si>
+  <si>
+    <t>SK2</t>
+  </si>
+  <si>
+    <t>LC1</t>
+  </si>
+  <si>
+    <t>LC2</t>
+  </si>
+  <si>
+    <t>LC3</t>
+  </si>
+  <si>
+    <t>LC4</t>
+  </si>
+  <si>
+    <t>LC5</t>
+  </si>
+  <si>
+    <t>LC6</t>
+  </si>
+  <si>
+    <t>LC7</t>
+  </si>
+  <si>
+    <t>LC8</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1408,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D165A-15F5-4328-ACD3-D3D33A98CD06}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D87D165A-15F5-4328-ACD3-D3D33A98CD06}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A35:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -1495,7 +1522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64CD77FD-45F6-487F-9339-BEB42CFD4DEB}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64CD77FD-45F6-487F-9339-BEB42CFD4DEB}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N35:O41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -1885,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:M52"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3079,11 +3106,11 @@
         <v>9</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" ref="L38:L52" si="10">IF(OR(RIGHT(A38)="C",A38="LN"),"Cavalry",IF(RIGHT(A38)="I","Infantry",A38))</f>
+        <f t="shared" ref="L38:L53" si="10">IF(OR(RIGHT(A38)="C",A38="LN"),"Cavalry",IF(RIGHT(A38)="I","Infantry",A38))</f>
         <v>Infantry</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:M52" si="11">IF(L38="Cavalry",G38*100,IF(L38="Infantry",G38*150,0))</f>
+        <f t="shared" ref="M38:M53" si="11">IF(L38="Cavalry",G38*100,IF(L38="Infantry",G38*150,0))</f>
         <v>750</v>
       </c>
     </row>
@@ -3519,6 +3546,254 @@
       <c r="M52">
         <f t="shared" si="11"/>
         <v>750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53" t="s">
+        <v>134</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="10"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>134</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" ref="L54:L60" si="12">IF(OR(RIGHT(A54)="C",A54="LN"),"Cavalry",IF(RIGHT(A54)="I","Infantry",A54))</f>
+        <v>Cavalry</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54:M60" si="13">IF(L54="Cavalry",G54*100,IF(L54="Infantry",G54*150,0))</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="12"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>140</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="12"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>134</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="12"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="12"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="12"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="12"/>
+        <v>Cavalry</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="13"/>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3813,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="A1:N30"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3856,9 +4131,8 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f>A10&amp;LEFT(D10)</f>
-        <v>SK1</v>
+      <c r="E10" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
